--- a/gereksinimmatrisicacabey.xlsx
+++ b/gereksinimmatrisicacabey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tügva3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E46D68C-B463-4CAC-AE83-7A8F7D4EA6B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0B5679-3AD0-441B-899F-FDF6BDFF0D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{D39F563B-761E-4735-8611-58DAE123B85A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>No</t>
   </si>
@@ -517,46 +517,7 @@
     <t>3.2.7. GENEL GÜVENLİK GEREKSİNİMLERİ</t>
   </si>
   <si>
-    <t>4.1.2.</t>
-  </si>
-  <si>
-    <t>4.1.3.</t>
-  </si>
-  <si>
-    <t>4.1.4.</t>
-  </si>
-  <si>
-    <t>4.1.6.</t>
-  </si>
-  <si>
-    <t>4.1.8.</t>
-  </si>
-  <si>
-    <t>4.1.9.</t>
-  </si>
-  <si>
-    <t>4.1.10.</t>
-  </si>
-  <si>
-    <t>4.1.11.</t>
-  </si>
-  <si>
-    <t>4.1.12.</t>
-  </si>
-  <si>
-    <t>4.1.21.</t>
-  </si>
-  <si>
-    <t>4.1. ÖN TASARIM RAPORU</t>
-  </si>
-  <si>
-    <t>4.2.KRİTİK TASARIM RAPORU</t>
-  </si>
-  <si>
     <t>3. GEREKSİNİMLER</t>
-  </si>
-  <si>
-    <t>4.KRİTERLER VE BEKLENTİLER</t>
   </si>
   <si>
     <t>3.2. ROKET GEREKSİNİMLERİ</t>
@@ -632,45 +593,7 @@
 varlığı önceden listelenmeli ve risk azaltıcı tedbirler planlanıp icra edilmelidir. </t>
   </si>
   <si>
-    <t>Teknik gereksinimlerin karşılandığının kanıtlanması için Gereksinimleri Karşılama Matrisi (İng. Compliance Matrix) oluşturulacak ve ilgili tasarım raporlarının EK’inde ayrıca sunulacaktır</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistem ve alt sistem seviyesinde, kıyaslamaya/karşılaştırmaya tabi tasarım, üretim ve malzeme gibi tüm gereksinimler arasından seçim kriteri ulaşılmak istenen sonuç yani hedeflenen irtifa olan tüm gereksinimlerin optimizasyon kriterleri ve sonuçları paylaşılmalıdır. </t>
-  </si>
-  <si>
-    <t>ÖTR ve KTR’de optimizasyona bağlı tüm gereksinimler listelenecek, optimizasyon
-gerekçeleri, optimizasyon süreçleri ile sonuçları açıklanacaktır.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takımların kullanmayı planladıkları sistemler için getiri-götürü analizi yapmış (İng. trade off) olmaları, karara esas kriterleri (vazgeçilmez ve opsiyonel kriterler) listelemeleri ve yapılan seçimlerin nedenlerini ÖTR’de sunması beklenmektedir. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Rocket programı ve takımların (Lise kategorisindeki takımlar hariç) geliştireceği üç (3) serbestlik dereceli benzetim ve modellemeyle roketin ön benzetimlerinin tamamlaması gerekmektedir.
-Tüm sistemlerin kütle bütçesinin detaylı olarak çıkarılması beklenmektedir. </t>
-  </si>
-  <si>
-    <t>Sıcak gaz üreteçlerinde kullanılacak malzemelerin tipi ve miktarına yönelik analizler ÖTR’de sunulmalıdır.</t>
-  </si>
-  <si>
-    <t>Yarışmada kullanılmak üzere seçilmiş olan ikinci alternatif roket motorunun da yer alması
-gerekmektedir.</t>
-  </si>
-  <si>
-    <t>Takımların sunacağı ÖTR’nin TEKNOFEST Roket Yarışması Komitesi tarafından etkin ve
-verimli değerlendirilmesi için “Giriş Kriterleri” (Entry Criterias) bulunmaktadır. Takımların ÖTR’de sunmaları beklenen çıktıların Giriş Kriterlerine uyması beklenmektedir. Aksi halde ÖTR hiçbir şekilde değerlendirmeye alınmayacaktır. Eğer “Giriş Kriterleri” sağlanmışsa, ÖTR için “Çıkış Kriterleri” (Exit Criterias) dikkate alınarak hakemler tarafından değerlendirme yapılacaktır. Giriş ve Çıkış Kriterleri tasarım raporları şablonları ile birlikte duyurulacaktır.</t>
-  </si>
-  <si>
     <t>4.2.8.</t>
-  </si>
-  <si>
-    <t>Gövde, burun, elektronik kart vb. gibi tüm sistemlerin nerede, nasıl ve hangi malzemeler ile üretileceğinin bilgisi detaylı olarak verilmelidir</t>
-  </si>
-  <si>
-    <t>Malzeme seçim kriterlerinin ve söz konusu seçimlerin sistemle uyumluluğunun raporda yer alması beklenmektedir.</t>
-  </si>
-  <si>
-    <t>Hata Modları ve Etkileri Analizi ile sonuçları da ÖTR’de sunulacaktır (Takımların Hata Modları
-ve Etkileri Analizi çalışmalarını yapabilmeleri için şablon dokümanlar internet sitesi üzerinden paylaşılacaktır).</t>
   </si>
   <si>
     <t>Sensörlerden okunan veriler doğrudan kullanılmamalı ve herhangi bir hatalı okuma ya da sensör hatası durumu göz önünde bulundurulmalıdır. Bu gibi durumlar için alınacak önlemler (filtreleme
@@ -678,6 +601,63 @@
   </si>
   <si>
     <t>Uçuş bilgisayarları ve/veya bağlı oldukları sistemlerden biri kısmen veya tamamen bozulsa bile diğeri roketin kurtarma işlevlerini aksaksız ve durmaksızın yerine getirmelidir.</t>
+  </si>
+  <si>
+    <t>4.2. KRİTİK TASARIM RAPORU</t>
+  </si>
+  <si>
+    <t>4.2.3.</t>
+  </si>
+  <si>
+    <t>ÖTR’de ilk versiyonu sunulan Hata Modları ve Etkileri Analizi Takımların roket tasarımlarını son haline getirmiş olmaları gerekmektedir (Tasarlanmış olan roketle ilgili tüm yapısal, akışkanlar dinamiği, uçuş algoritması yeterlilik vb. analizleri tamamlanmış olmalıdır. Böylece, seçimi yapılmış olan malzemeler, üretim yöntemleri, roket ve bileşenlerinin uçuş koşullarına dayanıklılığı ve uçuş algoritmasının uygunluğu kanıtlanmış olmalıdır).</t>
+  </si>
+  <si>
+    <t>Takımlar (Lise kategorisindeki takımlar hariç) geliştirecekleri üç (3) serbestlik dereceli benzetim ve modellemeyle roketin detaylı benzetimlerini tamamlamış ve Open Rocket benzetimleri ile uyumlu sonuçlar aldıklarını ispatlamış olmalıdır.</t>
+  </si>
+  <si>
+    <t>4.2.4.</t>
+  </si>
+  <si>
+    <t>4.2.5.</t>
+  </si>
+  <si>
+    <t>Benzetim süreçleri iteratif olup, roket tasarımının geçirdiği aşamalar neden-sonuç ilişkileriyle KTR’de açıklanmalıdır.</t>
+  </si>
+  <si>
+    <t>Detaylı Bilgisayar Destekli Tasarımların (İng. CAD), kullanılan CAD programı üzerinden entegrasyon videolarının hazırlanması gerekmektedir. Raporda yazan ya da yazmayan her detay CAD tasarımında gösterilmeli ve anlatılmalıdır.</t>
+  </si>
+  <si>
+    <t>4.2.6.</t>
+  </si>
+  <si>
+    <t>Sistem entegrasyon şeması kullanılarak açıklanmalıdır</t>
+  </si>
+  <si>
+    <t>4.2.7.</t>
+  </si>
+  <si>
+    <t>Gövde, burun, elektronik kart vb. gibi tüm sistemlerin nerede, nasıl ve hangi malzemeler ile üretileceğinin bilgisi detaylı olarak verilmelidir.</t>
+  </si>
+  <si>
+    <t>Zaman, üretim ve test planlarının hazırlanmış olması gerekmektedir (Planların içeriğinde hangi hafta hangi üretimlerin yapılacağı, hangi tarihlerde bileşenlerin test edileceği gibi detaylı bilgilere yer verilmelidir).</t>
+  </si>
+  <si>
+    <t>4.2.9.</t>
+  </si>
+  <si>
+    <t>Tasarımın üretilebilir olduğunun kanıtlanması ve analiz/test sonuçlarının TEKNOFEST Roket Yarışması Komitesi’ne sunulması gerekmektedir.</t>
+  </si>
+  <si>
+    <t>4.2.10.</t>
+  </si>
+  <si>
+    <t>4.2.12.</t>
+  </si>
+  <si>
+    <t>Raporu destekleyici “.ork” uzantılı Open Rocket dosyaları da rapor ile birlikte teslim edilmelidir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.KRİTERLER VE BEKLENTİLER  </t>
   </si>
 </sst>
 </file>
@@ -891,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -935,9 +915,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,6 +933,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
@@ -965,14 +951,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B474EC65-964C-4E41-8524-856BBE25B029}">
-  <dimension ref="A3:O599"/>
+  <dimension ref="A3:O597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,34 +1297,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1362,9 +1348,9 @@
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="4" t="s">
         <v>1</v>
       </c>
@@ -1386,18 +1372,18 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1418,9 +1404,9 @@
       <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1441,9 +1427,9 @@
       <c r="B14" s="5">
         <v>3</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1464,9 +1450,9 @@
       <c r="B15" s="9">
         <v>4</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
@@ -1482,14 +1468,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5">
         <v>5</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1510,9 +1496,9 @@
       <c r="B17" s="9">
         <v>6</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
@@ -1533,9 +1519,9 @@
       <c r="B18" s="5">
         <v>7</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1556,11 +1542,11 @@
       <c r="B19" s="9">
         <v>8</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -1583,9 +1569,9 @@
       <c r="B20" s="5">
         <v>9</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="6" t="s">
         <v>22</v>
       </c>
@@ -1606,9 +1592,9 @@
       <c r="B21" s="9">
         <v>10</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1629,9 +1615,9 @@
       <c r="B22" s="5">
         <v>11</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1652,9 +1638,9 @@
       <c r="B23" s="9">
         <v>12</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1675,9 +1661,9 @@
       <c r="B24" s="5">
         <v>13</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="6" t="s">
         <v>26</v>
       </c>
@@ -1698,9 +1684,9 @@
       <c r="B25" s="9">
         <v>14</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1721,9 +1707,9 @@
       <c r="B26" s="5">
         <v>15</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="6" t="s">
         <v>28</v>
       </c>
@@ -1744,9 +1730,9 @@
       <c r="B27" s="9">
         <v>16</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1767,9 +1753,9 @@
       <c r="B28" s="5">
         <v>17</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -1792,9 +1778,9 @@
       <c r="B29" s="9">
         <v>18</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="10" t="s">
         <v>41</v>
       </c>
@@ -1815,9 +1801,9 @@
       <c r="B30" s="5">
         <v>19</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="6" t="s">
         <v>42</v>
       </c>
@@ -1838,9 +1824,9 @@
       <c r="B31" s="9">
         <v>20</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="10" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1847,9 @@
       <c r="B32" s="5">
         <v>21</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="6" t="s">
         <v>44</v>
       </c>
@@ -1884,9 +1870,9 @@
       <c r="B33" s="9">
         <v>22</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="10" t="s">
         <v>45</v>
       </c>
@@ -1907,9 +1893,9 @@
       <c r="B34" s="5">
         <v>23</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="6" t="s">
         <v>46</v>
       </c>
@@ -1930,9 +1916,9 @@
       <c r="B35" s="9">
         <v>24</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="10" t="s">
         <v>47</v>
       </c>
@@ -1953,9 +1939,9 @@
       <c r="B36" s="5">
         <v>25</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="6" t="s">
         <v>48</v>
       </c>
@@ -1976,9 +1962,9 @@
       <c r="B37" s="9">
         <v>26</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="10" t="s">
         <v>49</v>
       </c>
@@ -1999,9 +1985,9 @@
       <c r="B38" s="5">
         <v>27</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="6" t="s">
         <v>50</v>
       </c>
@@ -2022,9 +2008,9 @@
       <c r="B39" s="9">
         <v>28</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="10" t="s">
         <v>51</v>
       </c>
@@ -2045,9 +2031,9 @@
       <c r="B40" s="5">
         <v>29</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="6" t="s">
         <v>52</v>
       </c>
@@ -2068,9 +2054,9 @@
       <c r="B41" s="9">
         <v>30</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="10" t="s">
         <v>53</v>
       </c>
@@ -2091,9 +2077,9 @@
       <c r="B42" s="5">
         <v>31</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="6" t="s">
         <v>54</v>
       </c>
@@ -2114,9 +2100,9 @@
       <c r="B43" s="9">
         <v>32</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="10" t="s">
         <v>55</v>
       </c>
@@ -2137,9 +2123,9 @@
       <c r="B44" s="5">
         <v>33</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="6" t="s">
         <v>56</v>
       </c>
@@ -2160,9 +2146,9 @@
       <c r="B45" s="9">
         <v>34</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="10" t="s">
         <v>57</v>
       </c>
@@ -2183,9 +2169,9 @@
       <c r="B46" s="5">
         <v>35</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="6" t="s">
         <v>58</v>
       </c>
@@ -2201,14 +2187,14 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="9">
         <v>36</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="10" t="s">
         <v>59</v>
       </c>
@@ -2229,9 +2215,9 @@
       <c r="B48" s="5">
         <v>37</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="22" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -2249,14 +2235,14 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="9">
         <v>38</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="10" t="s">
         <v>82</v>
       </c>
@@ -2277,9 +2263,9 @@
       <c r="B50" s="5">
         <v>39</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="6" t="s">
         <v>83</v>
       </c>
@@ -2295,14 +2281,14 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="9">
         <v>40</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="10" t="s">
         <v>84</v>
       </c>
@@ -2323,9 +2309,9 @@
       <c r="B52" s="5">
         <v>41</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="6" t="s">
         <v>85</v>
       </c>
@@ -2346,9 +2332,9 @@
       <c r="B53" s="9">
         <v>42</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="10" t="s">
         <v>86</v>
       </c>
@@ -2369,9 +2355,9 @@
       <c r="B54" s="5">
         <v>43</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="22" t="s">
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="27" t="s">
         <v>102</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -2389,14 +2375,14 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="9">
         <v>44</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
       <c r="F55" s="10" t="s">
         <v>95</v>
       </c>
@@ -2417,9 +2403,9 @@
       <c r="B56" s="5">
         <v>45</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="6" t="s">
         <v>96</v>
       </c>
@@ -2440,9 +2426,9 @@
       <c r="B57" s="9">
         <v>46</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="10" t="s">
         <v>97</v>
       </c>
@@ -2463,9 +2449,9 @@
       <c r="B58" s="5">
         <v>47</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
       <c r="F58" s="6" t="s">
         <v>98</v>
       </c>
@@ -2486,9 +2472,9 @@
       <c r="B59" s="9">
         <v>48</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="10" t="s">
         <v>99</v>
       </c>
@@ -2504,14 +2490,14 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="5">
         <v>49</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="6" t="s">
         <v>100</v>
       </c>
@@ -2532,9 +2518,9 @@
       <c r="B61" s="9">
         <v>50</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="10" t="s">
         <v>101</v>
       </c>
@@ -2555,9 +2541,9 @@
       <c r="B62" s="5">
         <v>51</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="22" t="s">
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="27" t="s">
         <v>119</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -2580,9 +2566,9 @@
       <c r="B63" s="9">
         <v>52</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
       <c r="F63" s="10" t="s">
         <v>112</v>
       </c>
@@ -2603,9 +2589,9 @@
       <c r="B64" s="5">
         <v>53</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
       <c r="F64" s="6" t="s">
         <v>113</v>
       </c>
@@ -2626,9 +2612,9 @@
       <c r="B65" s="9">
         <v>54</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
       <c r="F65" s="10" t="s">
         <v>114</v>
       </c>
@@ -2649,9 +2635,9 @@
       <c r="B66" s="5">
         <v>55</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
       <c r="F66" s="6" t="s">
         <v>115</v>
       </c>
@@ -2672,9 +2658,9 @@
       <c r="B67" s="9">
         <v>56</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
       <c r="F67" s="10" t="s">
         <v>116</v>
       </c>
@@ -2695,9 +2681,9 @@
       <c r="B68" s="5">
         <v>57</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
       <c r="F68" s="6" t="s">
         <v>117</v>
       </c>
@@ -2718,9 +2704,9 @@
       <c r="B69" s="9">
         <v>58</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="29"/>
       <c r="F69" s="10" t="s">
         <v>118</v>
       </c>
@@ -2741,16 +2727,16 @@
       <c r="B70" s="5">
         <v>59</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="22" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="27" t="s">
         <v>148</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>129</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="5"/>
@@ -2766,14 +2752,14 @@
       <c r="B71" s="9">
         <v>60</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
       <c r="F71" s="10" t="s">
         <v>128</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="9"/>
@@ -2789,14 +2775,14 @@
       <c r="B72" s="5">
         <v>61</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="5"/>
@@ -2812,14 +2798,14 @@
       <c r="B73" s="9">
         <v>62</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="10" t="s">
         <v>131</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="9"/>
@@ -2835,14 +2821,14 @@
       <c r="B74" s="5">
         <v>63</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="6" t="s">
         <v>132</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="5"/>
@@ -2858,14 +2844,14 @@
       <c r="B75" s="9">
         <v>64</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
       <c r="F75" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="9"/>
@@ -2881,14 +2867,14 @@
       <c r="B76" s="5">
         <v>65</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
       <c r="F76" s="6" t="s">
         <v>134</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="5"/>
@@ -2904,14 +2890,14 @@
       <c r="B77" s="9">
         <v>66</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
       <c r="F77" s="10" t="s">
         <v>135</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="9"/>
@@ -2927,14 +2913,14 @@
       <c r="B78" s="5">
         <v>67</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="5"/>
@@ -2950,14 +2936,14 @@
       <c r="B79" s="9">
         <v>68</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="9"/>
@@ -2973,14 +2959,14 @@
       <c r="B80" s="5">
         <v>69</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="6" t="s">
         <v>138</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="5"/>
@@ -2996,14 +2982,14 @@
       <c r="B81" s="9">
         <v>70</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="9"/>
@@ -3019,14 +3005,14 @@
       <c r="B82" s="5">
         <v>71</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
       <c r="F82" s="6" t="s">
         <v>140</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="5"/>
@@ -3042,14 +3028,14 @@
       <c r="B83" s="9">
         <v>72</v>
       </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
       <c r="F83" s="10" t="s">
         <v>141</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="9"/>
@@ -3065,14 +3051,14 @@
       <c r="B84" s="5">
         <v>73</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
       <c r="F84" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="5"/>
@@ -3088,14 +3074,14 @@
       <c r="B85" s="9">
         <v>74</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
       <c r="F85" s="10" t="s">
         <v>143</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="9"/>
@@ -3111,14 +3097,14 @@
       <c r="B86" s="5">
         <v>75</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
       <c r="F86" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="5"/>
@@ -3134,14 +3120,14 @@
       <c r="B87" s="9">
         <v>76</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
       <c r="F87" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="9"/>
@@ -3157,14 +3143,14 @@
       <c r="B88" s="5">
         <v>77</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
       <c r="F88" s="6" t="s">
         <v>146</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="5"/>
@@ -3180,14 +3166,14 @@
       <c r="B89" s="9">
         <v>78</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="24"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="29"/>
       <c r="F89" s="10" t="s">
         <v>147</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="9"/>
@@ -3203,16 +3189,16 @@
       <c r="B90" s="5">
         <v>79</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="22" t="s">
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="27" t="s">
         <v>151</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>149</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="5"/>
@@ -3223,19 +3209,19 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="9">
         <v>80</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
       <c r="F91" s="10" t="s">
         <v>150</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="9"/>
@@ -3246,23 +3232,23 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="5">
         <v>81</v>
       </c>
-      <c r="C92" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E92" s="22"/>
+      <c r="C92" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" s="24"/>
       <c r="F92" s="6" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="5"/>
@@ -3273,19 +3259,19 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="9">
         <v>82</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="25"/>
       <c r="F93" s="10" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="9"/>
@@ -3296,19 +3282,19 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="5">
         <v>83</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="25"/>
       <c r="F94" s="6" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="5"/>
@@ -3324,14 +3310,14 @@
       <c r="B95" s="9">
         <v>84</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="25"/>
       <c r="F95" s="10" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="9"/>
@@ -3342,19 +3328,19 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="5">
         <v>85</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="25"/>
       <c r="F96" s="6" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="5"/>
@@ -3365,19 +3351,19 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="9">
         <v>86</v>
       </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="25"/>
       <c r="F97" s="10" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="9"/>
@@ -3388,19 +3374,19 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="5">
         <v>87</v>
       </c>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="25"/>
       <c r="F98" s="6" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="5"/>
@@ -3411,19 +3397,19 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="9">
         <v>88</v>
       </c>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="25"/>
       <c r="F99" s="10" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="9"/>
@@ -3439,14 +3425,14 @@
       <c r="B100" s="5">
         <v>89</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="25"/>
       <c r="F100" s="6" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="5"/>
@@ -3457,20 +3443,16 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="9">
-        <v>90</v>
-      </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>194</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="11"/>
       <c r="H101" s="12"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
@@ -3480,22 +3462,16 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="5">
-        <v>91</v>
-      </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="14" t="s">
-        <v>163</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
       <c r="E102" s="14"/>
-      <c r="F102" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>196</v>
-      </c>
+      <c r="F102" s="6"/>
+      <c r="G102" s="7"/>
       <c r="H102" s="8"/>
       <c r="I102" s="5"/>
       <c r="J102" s="7"/>
@@ -3508,7 +3484,7 @@
     <row r="103" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
@@ -3527,7 +3503,7 @@
     <row r="104" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="5">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
@@ -3546,7 +3522,7 @@
     <row r="105" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
@@ -3565,7 +3541,7 @@
     <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="5">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
@@ -3584,7 +3560,7 @@
     <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
@@ -3603,7 +3579,7 @@
     <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="5">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
@@ -3622,7 +3598,7 @@
     <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="9">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
@@ -3641,7 +3617,7 @@
     <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="5">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
@@ -3660,7 +3636,7 @@
     <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="9">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
@@ -3679,7 +3655,7 @@
     <row r="112" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="5">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
@@ -3698,7 +3674,7 @@
     <row r="113" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="9">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
@@ -3717,7 +3693,7 @@
     <row r="114" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="5">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
@@ -3736,7 +3712,7 @@
     <row r="115" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
@@ -3755,7 +3731,7 @@
     <row r="116" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
@@ -3774,7 +3750,7 @@
     <row r="117" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
@@ -3793,7 +3769,7 @@
     <row r="118" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
@@ -3812,7 +3788,7 @@
     <row r="119" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
@@ -3831,7 +3807,7 @@
     <row r="120" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="5">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
@@ -3850,7 +3826,7 @@
     <row r="121" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="9">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -3869,7 +3845,7 @@
     <row r="122" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="5">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -3888,7 +3864,7 @@
     <row r="123" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="9">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
@@ -3907,7 +3883,7 @@
     <row r="124" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
@@ -3926,7 +3902,7 @@
     <row r="125" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
@@ -3945,7 +3921,7 @@
     <row r="126" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="5">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
@@ -3964,7 +3940,7 @@
     <row r="127" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="9">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
@@ -3983,7 +3959,7 @@
     <row r="128" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="5">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
@@ -4002,7 +3978,7 @@
     <row r="129" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
@@ -4021,7 +3997,7 @@
     <row r="130" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="5">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
@@ -4040,7 +4016,7 @@
     <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
@@ -4059,7 +4035,7 @@
     <row r="132" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="5">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="14"/>
@@ -4078,7 +4054,7 @@
     <row r="133" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
@@ -4097,7 +4073,7 @@
     <row r="134" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="5">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
@@ -4116,7 +4092,7 @@
     <row r="135" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="9">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
@@ -4135,7 +4111,7 @@
     <row r="136" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="5">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
@@ -4154,7 +4130,7 @@
     <row r="137" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
@@ -4173,7 +4149,7 @@
     <row r="138" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="5">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C138" s="14"/>
       <c r="D138" s="14"/>
@@ -4192,7 +4168,7 @@
     <row r="139" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="9">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
@@ -4211,7 +4187,7 @@
     <row r="140" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
@@ -4230,7 +4206,7 @@
     <row r="141" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C141" s="14"/>
       <c r="D141" s="14"/>
@@ -4249,7 +4225,7 @@
     <row r="142" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="5">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C142" s="14"/>
       <c r="D142" s="14"/>
@@ -4268,7 +4244,7 @@
     <row r="143" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
@@ -4287,7 +4263,7 @@
     <row r="144" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="5">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
@@ -4306,7 +4282,7 @@
     <row r="145" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C145" s="14"/>
       <c r="D145" s="14"/>
@@ -4325,7 +4301,7 @@
     <row r="146" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="5">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
@@ -4344,7 +4320,7 @@
     <row r="147" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="9">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
@@ -4363,7 +4339,7 @@
     <row r="148" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="5">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="14"/>
@@ -4382,7 +4358,7 @@
     <row r="149" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C149" s="14"/>
       <c r="D149" s="14"/>
@@ -4401,7 +4377,7 @@
     <row r="150" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="5">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
@@ -4420,7 +4396,7 @@
     <row r="151" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C151" s="14"/>
       <c r="D151" s="14"/>
@@ -4439,7 +4415,7 @@
     <row r="152" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="5">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
@@ -4458,7 +4434,7 @@
     <row r="153" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="9">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C153" s="14"/>
       <c r="D153" s="14"/>
@@ -4477,7 +4453,7 @@
     <row r="154" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="5">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C154" s="14"/>
       <c r="D154" s="14"/>
@@ -4496,7 +4472,7 @@
     <row r="155" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="9">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
@@ -4515,7 +4491,7 @@
     <row r="156" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="5">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
@@ -4534,7 +4510,7 @@
     <row r="157" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="9">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
@@ -4553,7 +4529,7 @@
     <row r="158" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="5">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
@@ -4572,7 +4548,7 @@
     <row r="159" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
@@ -4591,7 +4567,7 @@
     <row r="160" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="5">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
@@ -4610,7 +4586,7 @@
     <row r="161" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="9">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
@@ -4629,7 +4605,7 @@
     <row r="162" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
@@ -4648,7 +4624,7 @@
     <row r="163" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="9">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
@@ -4667,7 +4643,7 @@
     <row r="164" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="5">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
@@ -4686,7 +4662,7 @@
     <row r="165" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="9">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
@@ -4705,7 +4681,7 @@
     <row r="166" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="5">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
@@ -4724,7 +4700,7 @@
     <row r="167" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="9">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
@@ -4743,7 +4719,7 @@
     <row r="168" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="5">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
@@ -4762,7 +4738,7 @@
     <row r="169" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="9">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
@@ -4781,7 +4757,7 @@
     <row r="170" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="5">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
@@ -4800,7 +4776,7 @@
     <row r="171" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="9">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
@@ -4819,7 +4795,7 @@
     <row r="172" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="5">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
@@ -4838,7 +4814,7 @@
     <row r="173" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="9">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
@@ -4857,7 +4833,7 @@
     <row r="174" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="5">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
@@ -4876,7 +4852,7 @@
     <row r="175" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="9">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
@@ -4895,7 +4871,7 @@
     <row r="176" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="5">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
@@ -4914,7 +4890,7 @@
     <row r="177" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="9">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
@@ -4933,7 +4909,7 @@
     <row r="178" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="5">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
@@ -4952,7 +4928,7 @@
     <row r="179" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
@@ -4971,7 +4947,7 @@
     <row r="180" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="5">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
@@ -4990,7 +4966,7 @@
     <row r="181" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
@@ -5009,7 +4985,7 @@
     <row r="182" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="5">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
@@ -5028,7 +5004,7 @@
     <row r="183" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="9">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
@@ -5047,7 +5023,7 @@
     <row r="184" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="5">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
@@ -5066,7 +5042,7 @@
     <row r="185" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="9">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
@@ -5085,7 +5061,7 @@
     <row r="186" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="5">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
@@ -5104,7 +5080,7 @@
     <row r="187" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="9">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
@@ -5123,7 +5099,7 @@
     <row r="188" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="5">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
@@ -5142,7 +5118,7 @@
     <row r="189" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="9">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
@@ -5161,7 +5137,7 @@
     <row r="190" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="5">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
@@ -5180,7 +5156,7 @@
     <row r="191" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="9">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
@@ -5199,7 +5175,7 @@
     <row r="192" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="5">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
@@ -5218,7 +5194,7 @@
     <row r="193" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="9">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
@@ -5237,7 +5213,7 @@
     <row r="194" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="5">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
@@ -5256,7 +5232,7 @@
     <row r="195" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="9">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C195" s="14"/>
       <c r="D195" s="14"/>
@@ -5275,7 +5251,7 @@
     <row r="196" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="5">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
@@ -5294,7 +5270,7 @@
     <row r="197" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="9">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
@@ -5313,7 +5289,7 @@
     <row r="198" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="5">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
@@ -5332,7 +5308,7 @@
     <row r="199" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="9">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C199" s="14"/>
       <c r="D199" s="14"/>
@@ -5351,7 +5327,7 @@
     <row r="200" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="5">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C200" s="14"/>
       <c r="D200" s="14"/>
@@ -5370,7 +5346,7 @@
     <row r="201" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="9">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C201" s="14"/>
       <c r="D201" s="14"/>
@@ -5389,7 +5365,7 @@
     <row r="202" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="5">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
@@ -5408,7 +5384,7 @@
     <row r="203" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="9">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
@@ -5427,7 +5403,7 @@
     <row r="204" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="5">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
@@ -5446,7 +5422,7 @@
     <row r="205" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="9">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
@@ -5465,7 +5441,7 @@
     <row r="206" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="5">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
@@ -5484,7 +5460,7 @@
     <row r="207" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="9">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
@@ -5503,7 +5479,7 @@
     <row r="208" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="5">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
@@ -5522,7 +5498,7 @@
     <row r="209" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
@@ -5541,7 +5517,7 @@
     <row r="210" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="5">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
@@ -5560,7 +5536,7 @@
     <row r="211" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C211" s="14"/>
       <c r="D211" s="14"/>
@@ -5579,7 +5555,7 @@
     <row r="212" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="5">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
@@ -5598,7 +5574,7 @@
     <row r="213" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="9">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C213" s="14"/>
       <c r="D213" s="14"/>
@@ -5617,7 +5593,7 @@
     <row r="214" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="5">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
@@ -5636,7 +5612,7 @@
     <row r="215" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
@@ -5655,7 +5631,7 @@
     <row r="216" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="5">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
@@ -5674,7 +5650,7 @@
     <row r="217" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
@@ -5693,7 +5669,7 @@
     <row r="218" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="5">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C218" s="14"/>
       <c r="D218" s="14"/>
@@ -5712,7 +5688,7 @@
     <row r="219" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
@@ -5731,7 +5707,7 @@
     <row r="220" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="5">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
@@ -5750,7 +5726,7 @@
     <row r="221" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="9">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
@@ -5769,7 +5745,7 @@
     <row r="222" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="5">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
@@ -5788,7 +5764,7 @@
     <row r="223" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="9">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
@@ -5807,7 +5783,7 @@
     <row r="224" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="5">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
@@ -5826,7 +5802,7 @@
     <row r="225" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="9">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
@@ -5845,7 +5821,7 @@
     <row r="226" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="5">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
@@ -5864,7 +5840,7 @@
     <row r="227" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="9">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C227" s="14"/>
       <c r="D227" s="14"/>
@@ -5883,7 +5859,7 @@
     <row r="228" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="5">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
@@ -5902,7 +5878,7 @@
     <row r="229" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="9">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C229" s="14"/>
       <c r="D229" s="14"/>
@@ -5921,7 +5897,7 @@
     <row r="230" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="5">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C230" s="14"/>
       <c r="D230" s="14"/>
@@ -5940,7 +5916,7 @@
     <row r="231" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="9">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C231" s="14"/>
       <c r="D231" s="14"/>
@@ -5959,7 +5935,7 @@
     <row r="232" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
@@ -5978,7 +5954,7 @@
     <row r="233" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="9">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
@@ -5997,7 +5973,7 @@
     <row r="234" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
@@ -6016,7 +5992,7 @@
     <row r="235" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="9">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C235" s="14"/>
       <c r="D235" s="14"/>
@@ -6035,7 +6011,7 @@
     <row r="236" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="5">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
@@ -6054,7 +6030,7 @@
     <row r="237" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="9">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
@@ -6073,7 +6049,7 @@
     <row r="238" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="5">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
@@ -6092,7 +6068,7 @@
     <row r="239" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="9">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
@@ -6111,7 +6087,7 @@
     <row r="240" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="5">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
@@ -6130,7 +6106,7 @@
     <row r="241" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="9">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
@@ -6149,7 +6125,7 @@
     <row r="242" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="5">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C242" s="14"/>
       <c r="D242" s="14"/>
@@ -6168,7 +6144,7 @@
     <row r="243" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="9">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C243" s="14"/>
       <c r="D243" s="14"/>
@@ -6187,7 +6163,7 @@
     <row r="244" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="5">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
@@ -6206,7 +6182,7 @@
     <row r="245" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="9">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
@@ -6225,7 +6201,7 @@
     <row r="246" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="5">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
@@ -6244,7 +6220,7 @@
     <row r="247" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="9">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
@@ -6263,7 +6239,7 @@
     <row r="248" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="5">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
@@ -6282,7 +6258,7 @@
     <row r="249" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C249" s="14"/>
       <c r="D249" s="14"/>
@@ -6301,7 +6277,7 @@
     <row r="250" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="5">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C250" s="14"/>
       <c r="D250" s="14"/>
@@ -6320,7 +6296,7 @@
     <row r="251" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="9">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
@@ -6339,7 +6315,7 @@
     <row r="252" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="5">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
@@ -6358,7 +6334,7 @@
     <row r="253" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="9">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C253" s="14"/>
       <c r="D253" s="14"/>
@@ -6377,7 +6353,7 @@
     <row r="254" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="5">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C254" s="14"/>
       <c r="D254" s="14"/>
@@ -6396,7 +6372,7 @@
     <row r="255" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="9">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C255" s="14"/>
       <c r="D255" s="14"/>
@@ -6415,7 +6391,7 @@
     <row r="256" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="5">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C256" s="14"/>
       <c r="D256" s="14"/>
@@ -6434,7 +6410,7 @@
     <row r="257" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="9">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C257" s="14"/>
       <c r="D257" s="14"/>
@@ -6453,7 +6429,7 @@
     <row r="258" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="5">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C258" s="14"/>
       <c r="D258" s="14"/>
@@ -6472,7 +6448,7 @@
     <row r="259" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="9">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C259" s="14"/>
       <c r="D259" s="14"/>
@@ -6491,7 +6467,7 @@
     <row r="260" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="5">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
@@ -6510,7 +6486,7 @@
     <row r="261" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="9">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C261" s="14"/>
       <c r="D261" s="14"/>
@@ -6529,7 +6505,7 @@
     <row r="262" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="5">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C262" s="14"/>
       <c r="D262" s="14"/>
@@ -6548,7 +6524,7 @@
     <row r="263" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="9">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
@@ -6567,7 +6543,7 @@
     <row r="264" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="5">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
@@ -6586,7 +6562,7 @@
     <row r="265" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="9">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C265" s="14"/>
       <c r="D265" s="14"/>
@@ -6605,7 +6581,7 @@
     <row r="266" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="5">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
@@ -6624,7 +6600,7 @@
     <row r="267" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="9">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C267" s="14"/>
       <c r="D267" s="14"/>
@@ -6643,7 +6619,7 @@
     <row r="268" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="5">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C268" s="14"/>
       <c r="D268" s="14"/>
@@ -6662,7 +6638,7 @@
     <row r="269" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C269" s="14"/>
       <c r="D269" s="14"/>
@@ -6681,7 +6657,7 @@
     <row r="270" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="5">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C270" s="14"/>
       <c r="D270" s="14"/>
@@ -6700,7 +6676,7 @@
     <row r="271" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="9">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C271" s="14"/>
       <c r="D271" s="14"/>
@@ -6719,7 +6695,7 @@
     <row r="272" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="5">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C272" s="14"/>
       <c r="D272" s="14"/>
@@ -6738,7 +6714,7 @@
     <row r="273" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="9">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C273" s="14"/>
       <c r="D273" s="14"/>
@@ -6757,7 +6733,7 @@
     <row r="274" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="5">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C274" s="14"/>
       <c r="D274" s="14"/>
@@ -6776,7 +6752,7 @@
     <row r="275" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="9">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C275" s="14"/>
       <c r="D275" s="14"/>
@@ -6795,7 +6771,7 @@
     <row r="276" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="5">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C276" s="14"/>
       <c r="D276" s="14"/>
@@ -6814,7 +6790,7 @@
     <row r="277" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="9">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C277" s="14"/>
       <c r="D277" s="14"/>
@@ -6833,7 +6809,7 @@
     <row r="278" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="5">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C278" s="14"/>
       <c r="D278" s="14"/>
@@ -6852,7 +6828,7 @@
     <row r="279" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="9">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C279" s="14"/>
       <c r="D279" s="14"/>
@@ -6871,7 +6847,7 @@
     <row r="280" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="5">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C280" s="14"/>
       <c r="D280" s="14"/>
@@ -6890,7 +6866,7 @@
     <row r="281" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="9">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C281" s="14"/>
       <c r="D281" s="14"/>
@@ -6909,7 +6885,7 @@
     <row r="282" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="5">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C282" s="14"/>
       <c r="D282" s="14"/>
@@ -6928,7 +6904,7 @@
     <row r="283" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="9">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C283" s="14"/>
       <c r="D283" s="14"/>
@@ -6947,7 +6923,7 @@
     <row r="284" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="5">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C284" s="14"/>
       <c r="D284" s="14"/>
@@ -6966,7 +6942,7 @@
     <row r="285" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="9">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C285" s="14"/>
       <c r="D285" s="14"/>
@@ -6985,7 +6961,7 @@
     <row r="286" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="5">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C286" s="14"/>
       <c r="D286" s="14"/>
@@ -7004,7 +6980,7 @@
     <row r="287" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="9">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C287" s="14"/>
       <c r="D287" s="14"/>
@@ -7023,7 +6999,7 @@
     <row r="288" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="5">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C288" s="14"/>
       <c r="D288" s="14"/>
@@ -7042,7 +7018,7 @@
     <row r="289" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="9">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C289" s="14"/>
       <c r="D289" s="14"/>
@@ -7061,7 +7037,7 @@
     <row r="290" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="5">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C290" s="14"/>
       <c r="D290" s="14"/>
@@ -7080,7 +7056,7 @@
     <row r="291" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="9">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C291" s="14"/>
       <c r="D291" s="14"/>
@@ -7099,7 +7075,7 @@
     <row r="292" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="5">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C292" s="14"/>
       <c r="D292" s="14"/>
@@ -7118,7 +7094,7 @@
     <row r="293" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="9">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C293" s="14"/>
       <c r="D293" s="14"/>
@@ -7137,7 +7113,7 @@
     <row r="294" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="5">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C294" s="14"/>
       <c r="D294" s="14"/>
@@ -7156,7 +7132,7 @@
     <row r="295" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="9">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C295" s="14"/>
       <c r="D295" s="14"/>
@@ -7175,7 +7151,7 @@
     <row r="296" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="5">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C296" s="14"/>
       <c r="D296" s="14"/>
@@ -7194,7 +7170,7 @@
     <row r="297" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="9">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C297" s="14"/>
       <c r="D297" s="14"/>
@@ -7213,7 +7189,7 @@
     <row r="298" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="5">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C298" s="14"/>
       <c r="D298" s="14"/>
@@ -7232,7 +7208,7 @@
     <row r="299" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="9">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C299" s="14"/>
       <c r="D299" s="14"/>
@@ -7251,7 +7227,7 @@
     <row r="300" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="5">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C300" s="14"/>
       <c r="D300" s="14"/>
@@ -7270,7 +7246,7 @@
     <row r="301" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="9">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C301" s="14"/>
       <c r="D301" s="14"/>
@@ -7289,7 +7265,7 @@
     <row r="302" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="5">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C302" s="14"/>
       <c r="D302" s="14"/>
@@ -7308,7 +7284,7 @@
     <row r="303" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="9">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C303" s="14"/>
       <c r="D303" s="14"/>
@@ -7327,7 +7303,7 @@
     <row r="304" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="5">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C304" s="14"/>
       <c r="D304" s="14"/>
@@ -7346,7 +7322,7 @@
     <row r="305" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="9">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C305" s="14"/>
       <c r="D305" s="14"/>
@@ -7365,7 +7341,7 @@
     <row r="306" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="5">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C306" s="14"/>
       <c r="D306" s="14"/>
@@ -7384,7 +7360,7 @@
     <row r="307" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="9">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C307" s="14"/>
       <c r="D307" s="14"/>
@@ -7403,7 +7379,7 @@
     <row r="308" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="5">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C308" s="14"/>
       <c r="D308" s="14"/>
@@ -7422,7 +7398,7 @@
     <row r="309" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="9">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C309" s="14"/>
       <c r="D309" s="14"/>
@@ -7441,7 +7417,7 @@
     <row r="310" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="5">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C310" s="14"/>
       <c r="D310" s="14"/>
@@ -7460,7 +7436,7 @@
     <row r="311" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="9">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C311" s="14"/>
       <c r="D311" s="14"/>
@@ -7479,7 +7455,7 @@
     <row r="312" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="5">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C312" s="14"/>
       <c r="D312" s="14"/>
@@ -7498,7 +7474,7 @@
     <row r="313" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="9">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C313" s="14"/>
       <c r="D313" s="14"/>
@@ -7517,7 +7493,7 @@
     <row r="314" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="5">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C314" s="14"/>
       <c r="D314" s="14"/>
@@ -7536,7 +7512,7 @@
     <row r="315" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C315" s="14"/>
       <c r="D315" s="14"/>
@@ -7555,7 +7531,7 @@
     <row r="316" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="5">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C316" s="14"/>
       <c r="D316" s="14"/>
@@ -7574,7 +7550,7 @@
     <row r="317" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="14"/>
@@ -7593,7 +7569,7 @@
     <row r="318" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="5">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C318" s="14"/>
       <c r="D318" s="14"/>
@@ -7612,7 +7588,7 @@
     <row r="319" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C319" s="14"/>
       <c r="D319" s="14"/>
@@ -7631,7 +7607,7 @@
     <row r="320" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="5">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C320" s="14"/>
       <c r="D320" s="14"/>
@@ -7650,7 +7626,7 @@
     <row r="321" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="9">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C321" s="14"/>
       <c r="D321" s="14"/>
@@ -7669,7 +7645,7 @@
     <row r="322" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="5">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C322" s="14"/>
       <c r="D322" s="14"/>
@@ -7688,7 +7664,7 @@
     <row r="323" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="9">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C323" s="14"/>
       <c r="D323" s="14"/>
@@ -7707,7 +7683,7 @@
     <row r="324" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="5">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C324" s="14"/>
       <c r="D324" s="14"/>
@@ -7726,7 +7702,7 @@
     <row r="325" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="9">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C325" s="14"/>
       <c r="D325" s="14"/>
@@ -7745,7 +7721,7 @@
     <row r="326" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="5">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C326" s="14"/>
       <c r="D326" s="14"/>
@@ -7764,7 +7740,7 @@
     <row r="327" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="9">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C327" s="14"/>
       <c r="D327" s="14"/>
@@ -7783,7 +7759,7 @@
     <row r="328" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="5">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C328" s="14"/>
       <c r="D328" s="14"/>
@@ -7802,7 +7778,7 @@
     <row r="329" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="9">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C329" s="14"/>
       <c r="D329" s="14"/>
@@ -7821,7 +7797,7 @@
     <row r="330" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="5">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C330" s="14"/>
       <c r="D330" s="14"/>
@@ -7840,7 +7816,7 @@
     <row r="331" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="9">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C331" s="14"/>
       <c r="D331" s="14"/>
@@ -7859,7 +7835,7 @@
     <row r="332" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="5">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C332" s="14"/>
       <c r="D332" s="14"/>
@@ -7878,7 +7854,7 @@
     <row r="333" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="9">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C333" s="14"/>
       <c r="D333" s="14"/>
@@ -7897,7 +7873,7 @@
     <row r="334" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="5">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C334" s="14"/>
       <c r="D334" s="14"/>
@@ -7916,7 +7892,7 @@
     <row r="335" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="9">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C335" s="14"/>
       <c r="D335" s="14"/>
@@ -7935,7 +7911,7 @@
     <row r="336" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="5">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C336" s="14"/>
       <c r="D336" s="14"/>
@@ -7954,7 +7930,7 @@
     <row r="337" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="9">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C337" s="14"/>
       <c r="D337" s="14"/>
@@ -7973,7 +7949,7 @@
     <row r="338" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="5">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C338" s="14"/>
       <c r="D338" s="14"/>
@@ -7992,7 +7968,7 @@
     <row r="339" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="9">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C339" s="14"/>
       <c r="D339" s="14"/>
@@ -8011,7 +7987,7 @@
     <row r="340" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="5">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C340" s="14"/>
       <c r="D340" s="14"/>
@@ -8030,7 +8006,7 @@
     <row r="341" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="9">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C341" s="14"/>
       <c r="D341" s="14"/>
@@ -8049,7 +8025,7 @@
     <row r="342" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="5">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C342" s="14"/>
       <c r="D342" s="14"/>
@@ -8068,7 +8044,7 @@
     <row r="343" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="9">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C343" s="14"/>
       <c r="D343" s="14"/>
@@ -8087,7 +8063,7 @@
     <row r="344" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="5">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C344" s="14"/>
       <c r="D344" s="14"/>
@@ -8106,7 +8082,7 @@
     <row r="345" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="9">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C345" s="14"/>
       <c r="D345" s="14"/>
@@ -8125,7 +8101,7 @@
     <row r="346" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="5">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C346" s="14"/>
       <c r="D346" s="14"/>
@@ -8144,7 +8120,7 @@
     <row r="347" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="9">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C347" s="14"/>
       <c r="D347" s="14"/>
@@ -8163,7 +8139,7 @@
     <row r="348" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="5">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C348" s="14"/>
       <c r="D348" s="14"/>
@@ -8182,7 +8158,7 @@
     <row r="349" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="9">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C349" s="14"/>
       <c r="D349" s="14"/>
@@ -8201,7 +8177,7 @@
     <row r="350" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="5">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C350" s="14"/>
       <c r="D350" s="14"/>
@@ -8220,7 +8196,7 @@
     <row r="351" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="9">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C351" s="14"/>
       <c r="D351" s="14"/>
@@ -8239,7 +8215,7 @@
     <row r="352" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="5">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C352" s="14"/>
       <c r="D352" s="14"/>
@@ -8258,7 +8234,7 @@
     <row r="353" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="9">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
@@ -8277,7 +8253,7 @@
     <row r="354" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="5">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C354" s="14"/>
       <c r="D354" s="14"/>
@@ -8296,7 +8272,7 @@
     <row r="355" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="9">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C355" s="14"/>
       <c r="D355" s="14"/>
@@ -8315,7 +8291,7 @@
     <row r="356" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="5">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C356" s="14"/>
       <c r="D356" s="14"/>
@@ -8334,7 +8310,7 @@
     <row r="357" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="9">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C357" s="14"/>
       <c r="D357" s="14"/>
@@ -8353,7 +8329,7 @@
     <row r="358" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C358" s="14"/>
       <c r="D358" s="14"/>
@@ -8372,7 +8348,7 @@
     <row r="359" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="9">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C359" s="14"/>
       <c r="D359" s="14"/>
@@ -8391,7 +8367,7 @@
     <row r="360" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="5">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C360" s="14"/>
       <c r="D360" s="14"/>
@@ -8410,7 +8386,7 @@
     <row r="361" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="9">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C361" s="14"/>
       <c r="D361" s="14"/>
@@ -8429,7 +8405,7 @@
     <row r="362" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C362" s="14"/>
       <c r="D362" s="14"/>
@@ -8448,7 +8424,7 @@
     <row r="363" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="9">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C363" s="14"/>
       <c r="D363" s="14"/>
@@ -8467,7 +8443,7 @@
     <row r="364" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C364" s="14"/>
       <c r="D364" s="14"/>
@@ -8486,7 +8462,7 @@
     <row r="365" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="9">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C365" s="14"/>
       <c r="D365" s="14"/>
@@ -8505,7 +8481,7 @@
     <row r="366" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="5">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C366" s="14"/>
       <c r="D366" s="14"/>
@@ -8524,7 +8500,7 @@
     <row r="367" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="9">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C367" s="14"/>
       <c r="D367" s="14"/>
@@ -8543,7 +8519,7 @@
     <row r="368" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="5">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C368" s="14"/>
       <c r="D368" s="14"/>
@@ -8562,7 +8538,7 @@
     <row r="369" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="9">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C369" s="14"/>
       <c r="D369" s="14"/>
@@ -8581,7 +8557,7 @@
     <row r="370" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="5">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C370" s="14"/>
       <c r="D370" s="14"/>
@@ -8600,7 +8576,7 @@
     <row r="371" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="9">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C371" s="14"/>
       <c r="D371" s="14"/>
@@ -8619,7 +8595,7 @@
     <row r="372" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="5">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C372" s="14"/>
       <c r="D372" s="14"/>
@@ -8638,7 +8614,7 @@
     <row r="373" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="9">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C373" s="14"/>
       <c r="D373" s="14"/>
@@ -8657,7 +8633,7 @@
     <row r="374" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="5">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C374" s="14"/>
       <c r="D374" s="14"/>
@@ -8676,7 +8652,7 @@
     <row r="375" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="9">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C375" s="14"/>
       <c r="D375" s="14"/>
@@ -8695,7 +8671,7 @@
     <row r="376" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="5">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C376" s="14"/>
       <c r="D376" s="14"/>
@@ -8714,7 +8690,7 @@
     <row r="377" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="9">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C377" s="14"/>
       <c r="D377" s="14"/>
@@ -8733,7 +8709,7 @@
     <row r="378" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="5">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C378" s="14"/>
       <c r="D378" s="14"/>
@@ -8752,7 +8728,7 @@
     <row r="379" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="9">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C379" s="14"/>
       <c r="D379" s="14"/>
@@ -8771,7 +8747,7 @@
     <row r="380" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="5">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C380" s="14"/>
       <c r="D380" s="14"/>
@@ -8790,7 +8766,7 @@
     <row r="381" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="9">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C381" s="14"/>
       <c r="D381" s="14"/>
@@ -8809,7 +8785,7 @@
     <row r="382" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="5">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C382" s="14"/>
       <c r="D382" s="14"/>
@@ -8828,7 +8804,7 @@
     <row r="383" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="9">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C383" s="14"/>
       <c r="D383" s="14"/>
@@ -8847,7 +8823,7 @@
     <row r="384" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="5">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C384" s="14"/>
       <c r="D384" s="14"/>
@@ -8866,7 +8842,7 @@
     <row r="385" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="9">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C385" s="14"/>
       <c r="D385" s="14"/>
@@ -8885,7 +8861,7 @@
     <row r="386" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="5">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C386" s="14"/>
       <c r="D386" s="14"/>
@@ -8904,7 +8880,7 @@
     <row r="387" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="9">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C387" s="14"/>
       <c r="D387" s="14"/>
@@ -8923,7 +8899,7 @@
     <row r="388" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="5">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C388" s="14"/>
       <c r="D388" s="14"/>
@@ -8942,7 +8918,7 @@
     <row r="389" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="9">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C389" s="14"/>
       <c r="D389" s="14"/>
@@ -8961,7 +8937,7 @@
     <row r="390" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="5">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C390" s="14"/>
       <c r="D390" s="14"/>
@@ -8980,7 +8956,7 @@
     <row r="391" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="9">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C391" s="14"/>
       <c r="D391" s="14"/>
@@ -8999,7 +8975,7 @@
     <row r="392" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="5">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C392" s="14"/>
       <c r="D392" s="14"/>
@@ -9018,7 +8994,7 @@
     <row r="393" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="9">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C393" s="14"/>
       <c r="D393" s="14"/>
@@ -9037,7 +9013,7 @@
     <row r="394" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="5">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C394" s="14"/>
       <c r="D394" s="14"/>
@@ -9056,7 +9032,7 @@
     <row r="395" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="9">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C395" s="14"/>
       <c r="D395" s="14"/>
@@ -9075,7 +9051,7 @@
     <row r="396" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="5">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C396" s="14"/>
       <c r="D396" s="14"/>
@@ -9094,7 +9070,7 @@
     <row r="397" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="9">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C397" s="14"/>
       <c r="D397" s="14"/>
@@ -9113,7 +9089,7 @@
     <row r="398" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="5">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C398" s="14"/>
       <c r="D398" s="14"/>
@@ -9132,7 +9108,7 @@
     <row r="399" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="9">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C399" s="14"/>
       <c r="D399" s="14"/>
@@ -9151,7 +9127,7 @@
     <row r="400" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="5">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C400" s="14"/>
       <c r="D400" s="14"/>
@@ -9170,7 +9146,7 @@
     <row r="401" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="9">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C401" s="14"/>
       <c r="D401" s="14"/>
@@ -9189,7 +9165,7 @@
     <row r="402" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="5">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C402" s="14"/>
       <c r="D402" s="14"/>
@@ -9208,7 +9184,7 @@
     <row r="403" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="9">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C403" s="14"/>
       <c r="D403" s="14"/>
@@ -9227,7 +9203,7 @@
     <row r="404" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="5">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C404" s="14"/>
       <c r="D404" s="14"/>
@@ -9246,7 +9222,7 @@
     <row r="405" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="9">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C405" s="14"/>
       <c r="D405" s="14"/>
@@ -9265,7 +9241,7 @@
     <row r="406" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="5">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C406" s="14"/>
       <c r="D406" s="14"/>
@@ -9284,7 +9260,7 @@
     <row r="407" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="9">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C407" s="14"/>
       <c r="D407" s="14"/>
@@ -9303,7 +9279,7 @@
     <row r="408" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="5">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C408" s="14"/>
       <c r="D408" s="14"/>
@@ -9322,7 +9298,7 @@
     <row r="409" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="9">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C409" s="14"/>
       <c r="D409" s="14"/>
@@ -9341,7 +9317,7 @@
     <row r="410" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="5">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C410" s="14"/>
       <c r="D410" s="14"/>
@@ -9360,7 +9336,7 @@
     <row r="411" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="9">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C411" s="14"/>
       <c r="D411" s="14"/>
@@ -9379,7 +9355,7 @@
     <row r="412" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="5">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C412" s="14"/>
       <c r="D412" s="14"/>
@@ -9398,7 +9374,7 @@
     <row r="413" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="9">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C413" s="14"/>
       <c r="D413" s="14"/>
@@ -9417,7 +9393,7 @@
     <row r="414" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="5">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C414" s="14"/>
       <c r="D414" s="14"/>
@@ -9436,7 +9412,7 @@
     <row r="415" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="9">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C415" s="14"/>
       <c r="D415" s="14"/>
@@ -9455,7 +9431,7 @@
     <row r="416" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="5">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C416" s="14"/>
       <c r="D416" s="14"/>
@@ -9474,7 +9450,7 @@
     <row r="417" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="9">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C417" s="14"/>
       <c r="D417" s="14"/>
@@ -9493,7 +9469,7 @@
     <row r="418" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="5">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C418" s="14"/>
       <c r="D418" s="14"/>
@@ -9512,7 +9488,7 @@
     <row r="419" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="9">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C419" s="14"/>
       <c r="D419" s="14"/>
@@ -9531,7 +9507,7 @@
     <row r="420" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="5">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C420" s="14"/>
       <c r="D420" s="14"/>
@@ -9550,7 +9526,7 @@
     <row r="421" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="9">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C421" s="14"/>
       <c r="D421" s="14"/>
@@ -9569,7 +9545,7 @@
     <row r="422" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="5">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C422" s="14"/>
       <c r="D422" s="14"/>
@@ -9588,7 +9564,7 @@
     <row r="423" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="9">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C423" s="14"/>
       <c r="D423" s="14"/>
@@ -9607,7 +9583,7 @@
     <row r="424" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="5">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C424" s="14"/>
       <c r="D424" s="14"/>
@@ -9626,7 +9602,7 @@
     <row r="425" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="9">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C425" s="14"/>
       <c r="D425" s="14"/>
@@ -9645,7 +9621,7 @@
     <row r="426" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="5">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C426" s="14"/>
       <c r="D426" s="14"/>
@@ -9664,7 +9640,7 @@
     <row r="427" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="9">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C427" s="14"/>
       <c r="D427" s="14"/>
@@ -9683,7 +9659,7 @@
     <row r="428" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="5">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C428" s="14"/>
       <c r="D428" s="14"/>
@@ -9702,7 +9678,7 @@
     <row r="429" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="9">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C429" s="14"/>
       <c r="D429" s="14"/>
@@ -9721,7 +9697,7 @@
     <row r="430" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="5">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C430" s="14"/>
       <c r="D430" s="14"/>
@@ -9740,7 +9716,7 @@
     <row r="431" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="9">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C431" s="14"/>
       <c r="D431" s="14"/>
@@ -9759,7 +9735,7 @@
     <row r="432" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="5">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C432" s="14"/>
       <c r="D432" s="14"/>
@@ -9778,7 +9754,7 @@
     <row r="433" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="9">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C433" s="14"/>
       <c r="D433" s="14"/>
@@ -9797,7 +9773,7 @@
     <row r="434" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="5">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C434" s="14"/>
       <c r="D434" s="14"/>
@@ -9816,7 +9792,7 @@
     <row r="435" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="9">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C435" s="14"/>
       <c r="D435" s="14"/>
@@ -9835,7 +9811,7 @@
     <row r="436" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="5">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C436" s="14"/>
       <c r="D436" s="14"/>
@@ -9854,7 +9830,7 @@
     <row r="437" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="9">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C437" s="14"/>
       <c r="D437" s="14"/>
@@ -9873,7 +9849,7 @@
     <row r="438" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="5">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C438" s="14"/>
       <c r="D438" s="14"/>
@@ -9892,7 +9868,7 @@
     <row r="439" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="9">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C439" s="14"/>
       <c r="D439" s="14"/>
@@ -9911,7 +9887,7 @@
     <row r="440" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="5">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C440" s="14"/>
       <c r="D440" s="14"/>
@@ -9930,7 +9906,7 @@
     <row r="441" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="9">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C441" s="14"/>
       <c r="D441" s="14"/>
@@ -9949,7 +9925,7 @@
     <row r="442" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="5">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C442" s="14"/>
       <c r="D442" s="14"/>
@@ -9968,7 +9944,7 @@
     <row r="443" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="9">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C443" s="14"/>
       <c r="D443" s="14"/>
@@ -9987,7 +9963,7 @@
     <row r="444" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="5">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C444" s="14"/>
       <c r="D444" s="14"/>
@@ -10006,7 +9982,7 @@
     <row r="445" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="9">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C445" s="14"/>
       <c r="D445" s="14"/>
@@ -10025,7 +10001,7 @@
     <row r="446" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="5">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C446" s="14"/>
       <c r="D446" s="14"/>
@@ -10044,7 +10020,7 @@
     <row r="447" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="9">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C447" s="14"/>
       <c r="D447" s="14"/>
@@ -10063,7 +10039,7 @@
     <row r="448" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="5">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C448" s="14"/>
       <c r="D448" s="14"/>
@@ -10082,7 +10058,7 @@
     <row r="449" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="9">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C449" s="14"/>
       <c r="D449" s="14"/>
@@ -10101,7 +10077,7 @@
     <row r="450" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="5">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C450" s="14"/>
       <c r="D450" s="14"/>
@@ -10120,7 +10096,7 @@
     <row r="451" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="9">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C451" s="14"/>
       <c r="D451" s="14"/>
@@ -10139,7 +10115,7 @@
     <row r="452" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="5">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C452" s="14"/>
       <c r="D452" s="14"/>
@@ -10158,7 +10134,7 @@
     <row r="453" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="9">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C453" s="14"/>
       <c r="D453" s="14"/>
@@ -10177,7 +10153,7 @@
     <row r="454" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="5">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C454" s="14"/>
       <c r="D454" s="14"/>
@@ -10196,7 +10172,7 @@
     <row r="455" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="9">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C455" s="14"/>
       <c r="D455" s="14"/>
@@ -10215,7 +10191,7 @@
     <row r="456" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="5">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C456" s="14"/>
       <c r="D456" s="14"/>
@@ -10234,7 +10210,7 @@
     <row r="457" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="9">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C457" s="14"/>
       <c r="D457" s="14"/>
@@ -10253,7 +10229,7 @@
     <row r="458" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="5">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C458" s="14"/>
       <c r="D458" s="14"/>
@@ -10272,7 +10248,7 @@
     <row r="459" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="9">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C459" s="14"/>
       <c r="D459" s="14"/>
@@ -10291,7 +10267,7 @@
     <row r="460" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="5">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C460" s="14"/>
       <c r="D460" s="14"/>
@@ -10310,7 +10286,7 @@
     <row r="461" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="9">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C461" s="14"/>
       <c r="D461" s="14"/>
@@ -10329,7 +10305,7 @@
     <row r="462" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="5">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C462" s="14"/>
       <c r="D462" s="14"/>
@@ -10348,7 +10324,7 @@
     <row r="463" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="9">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C463" s="14"/>
       <c r="D463" s="14"/>
@@ -10367,7 +10343,7 @@
     <row r="464" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="5">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C464" s="14"/>
       <c r="D464" s="14"/>
@@ -10386,7 +10362,7 @@
     <row r="465" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="9">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C465" s="14"/>
       <c r="D465" s="14"/>
@@ -10405,7 +10381,7 @@
     <row r="466" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="5">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C466" s="14"/>
       <c r="D466" s="14"/>
@@ -10424,7 +10400,7 @@
     <row r="467" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="9">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C467" s="14"/>
       <c r="D467" s="14"/>
@@ -10443,7 +10419,7 @@
     <row r="468" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="5">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C468" s="14"/>
       <c r="D468" s="14"/>
@@ -10462,7 +10438,7 @@
     <row r="469" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="9">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C469" s="14"/>
       <c r="D469" s="14"/>
@@ -10481,7 +10457,7 @@
     <row r="470" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="5">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C470" s="14"/>
       <c r="D470" s="14"/>
@@ -10500,7 +10476,7 @@
     <row r="471" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="9">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C471" s="14"/>
       <c r="D471" s="14"/>
@@ -10519,7 +10495,7 @@
     <row r="472" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="5">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C472" s="14"/>
       <c r="D472" s="14"/>
@@ -10538,7 +10514,7 @@
     <row r="473" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="9">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C473" s="14"/>
       <c r="D473" s="14"/>
@@ -10557,7 +10533,7 @@
     <row r="474" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="5">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C474" s="14"/>
       <c r="D474" s="14"/>
@@ -10576,7 +10552,7 @@
     <row r="475" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="9">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C475" s="14"/>
       <c r="D475" s="14"/>
@@ -10595,7 +10571,7 @@
     <row r="476" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="5">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C476" s="14"/>
       <c r="D476" s="14"/>
@@ -10614,7 +10590,7 @@
     <row r="477" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="9">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C477" s="14"/>
       <c r="D477" s="14"/>
@@ -10633,7 +10609,7 @@
     <row r="478" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="5">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C478" s="14"/>
       <c r="D478" s="14"/>
@@ -10652,7 +10628,7 @@
     <row r="479" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="9">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C479" s="14"/>
       <c r="D479" s="14"/>
@@ -10671,7 +10647,7 @@
     <row r="480" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="5">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C480" s="14"/>
       <c r="D480" s="14"/>
@@ -10690,7 +10666,7 @@
     <row r="481" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="9">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C481" s="14"/>
       <c r="D481" s="14"/>
@@ -10709,7 +10685,7 @@
     <row r="482" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="5">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C482" s="14"/>
       <c r="D482" s="14"/>
@@ -10728,7 +10704,7 @@
     <row r="483" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="9">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C483" s="14"/>
       <c r="D483" s="14"/>
@@ -10747,7 +10723,7 @@
     <row r="484" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="5">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C484" s="14"/>
       <c r="D484" s="14"/>
@@ -10766,7 +10742,7 @@
     <row r="485" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="9">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C485" s="14"/>
       <c r="D485" s="14"/>
@@ -10785,7 +10761,7 @@
     <row r="486" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="5">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C486" s="14"/>
       <c r="D486" s="14"/>
@@ -10804,7 +10780,7 @@
     <row r="487" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="9">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C487" s="14"/>
       <c r="D487" s="14"/>
@@ -10823,7 +10799,7 @@
     <row r="488" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="5">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C488" s="14"/>
       <c r="D488" s="14"/>
@@ -10842,7 +10818,7 @@
     <row r="489" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="9">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C489" s="14"/>
       <c r="D489" s="14"/>
@@ -10861,7 +10837,7 @@
     <row r="490" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="5">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C490" s="14"/>
       <c r="D490" s="14"/>
@@ -10880,7 +10856,7 @@
     <row r="491" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="9">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C491" s="14"/>
       <c r="D491" s="14"/>
@@ -10899,7 +10875,7 @@
     <row r="492" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="5">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C492" s="14"/>
       <c r="D492" s="14"/>
@@ -10918,7 +10894,7 @@
     <row r="493" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="9">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C493" s="14"/>
       <c r="D493" s="14"/>
@@ -10937,7 +10913,7 @@
     <row r="494" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="5">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C494" s="14"/>
       <c r="D494" s="14"/>
@@ -10956,7 +10932,7 @@
     <row r="495" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="9">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C495" s="14"/>
       <c r="D495" s="14"/>
@@ -10975,7 +10951,7 @@
     <row r="496" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="5">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C496" s="14"/>
       <c r="D496" s="14"/>
@@ -10994,7 +10970,7 @@
     <row r="497" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="9">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C497" s="14"/>
       <c r="D497" s="14"/>
@@ -11013,7 +10989,7 @@
     <row r="498" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="5">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C498" s="14"/>
       <c r="D498" s="14"/>
@@ -11032,7 +11008,7 @@
     <row r="499" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="9">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C499" s="14"/>
       <c r="D499" s="14"/>
@@ -11049,9 +11025,9 @@
       <c r="O499" s="1"/>
     </row>
     <row r="500" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A500" s="2"/>
+      <c r="A500" s="1"/>
       <c r="B500" s="5">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C500" s="14"/>
       <c r="D500" s="14"/>
@@ -11068,9 +11044,9 @@
       <c r="O500" s="1"/>
     </row>
     <row r="501" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A501" s="2"/>
+      <c r="A501" s="1"/>
       <c r="B501" s="9">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C501" s="14"/>
       <c r="D501" s="14"/>
@@ -11089,7 +11065,7 @@
     <row r="502" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="5">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C502" s="14"/>
       <c r="D502" s="14"/>
@@ -11108,7 +11084,7 @@
     <row r="503" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="9">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C503" s="14"/>
       <c r="D503" s="14"/>
@@ -11127,7 +11103,7 @@
     <row r="504" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="5">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C504" s="14"/>
       <c r="D504" s="14"/>
@@ -11146,7 +11122,7 @@
     <row r="505" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="9">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C505" s="14"/>
       <c r="D505" s="14"/>
@@ -11165,7 +11141,7 @@
     <row r="506" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="5">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C506" s="14"/>
       <c r="D506" s="14"/>
@@ -11184,7 +11160,7 @@
     <row r="507" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="9">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C507" s="14"/>
       <c r="D507" s="14"/>
@@ -11203,7 +11179,7 @@
     <row r="508" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="5">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C508" s="14"/>
       <c r="D508" s="14"/>
@@ -11222,7 +11198,7 @@
     <row r="509" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="9">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C509" s="14"/>
       <c r="D509" s="14"/>
@@ -11241,7 +11217,7 @@
     <row r="510" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="5">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C510" s="14"/>
       <c r="D510" s="14"/>
@@ -11260,7 +11236,7 @@
     <row r="511" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="9">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C511" s="14"/>
       <c r="D511" s="14"/>
@@ -11279,7 +11255,7 @@
     <row r="512" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="5">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C512" s="14"/>
       <c r="D512" s="14"/>
@@ -11298,7 +11274,7 @@
     <row r="513" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="9">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C513" s="14"/>
       <c r="D513" s="14"/>
@@ -11317,7 +11293,7 @@
     <row r="514" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="5">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C514" s="14"/>
       <c r="D514" s="14"/>
@@ -11336,7 +11312,7 @@
     <row r="515" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="9">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C515" s="14"/>
       <c r="D515" s="14"/>
@@ -11355,7 +11331,7 @@
     <row r="516" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="5">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C516" s="14"/>
       <c r="D516" s="14"/>
@@ -11374,7 +11350,7 @@
     <row r="517" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="9">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C517" s="14"/>
       <c r="D517" s="14"/>
@@ -11393,7 +11369,7 @@
     <row r="518" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="5">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C518" s="14"/>
       <c r="D518" s="14"/>
@@ -11412,7 +11388,7 @@
     <row r="519" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="9">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C519" s="14"/>
       <c r="D519" s="14"/>
@@ -11431,7 +11407,7 @@
     <row r="520" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="5">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C520" s="14"/>
       <c r="D520" s="14"/>
@@ -11450,7 +11426,7 @@
     <row r="521" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="9">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C521" s="14"/>
       <c r="D521" s="14"/>
@@ -11469,7 +11445,7 @@
     <row r="522" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="5">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C522" s="14"/>
       <c r="D522" s="14"/>
@@ -11488,7 +11464,7 @@
     <row r="523" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="9">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C523" s="14"/>
       <c r="D523" s="14"/>
@@ -11507,7 +11483,7 @@
     <row r="524" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="5">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C524" s="14"/>
       <c r="D524" s="14"/>
@@ -11526,7 +11502,7 @@
     <row r="525" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="9">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C525" s="14"/>
       <c r="D525" s="14"/>
@@ -11545,7 +11521,7 @@
     <row r="526" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="5">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C526" s="14"/>
       <c r="D526" s="14"/>
@@ -11564,7 +11540,7 @@
     <row r="527" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="9">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C527" s="14"/>
       <c r="D527" s="14"/>
@@ -11583,7 +11559,7 @@
     <row r="528" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="5">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C528" s="14"/>
       <c r="D528" s="14"/>
@@ -11602,7 +11578,7 @@
     <row r="529" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="9">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C529" s="14"/>
       <c r="D529" s="14"/>
@@ -11621,7 +11597,7 @@
     <row r="530" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="5">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C530" s="14"/>
       <c r="D530" s="14"/>
@@ -11640,7 +11616,7 @@
     <row r="531" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="9">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C531" s="14"/>
       <c r="D531" s="14"/>
@@ -11659,7 +11635,7 @@
     <row r="532" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="5">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C532" s="14"/>
       <c r="D532" s="14"/>
@@ -11678,7 +11654,7 @@
     <row r="533" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="9">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C533" s="14"/>
       <c r="D533" s="14"/>
@@ -11697,7 +11673,7 @@
     <row r="534" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="5">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C534" s="14"/>
       <c r="D534" s="14"/>
@@ -11716,7 +11692,7 @@
     <row r="535" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="9">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C535" s="14"/>
       <c r="D535" s="14"/>
@@ -11735,7 +11711,7 @@
     <row r="536" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="5">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C536" s="14"/>
       <c r="D536" s="14"/>
@@ -11754,7 +11730,7 @@
     <row r="537" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="9">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C537" s="14"/>
       <c r="D537" s="14"/>
@@ -11773,7 +11749,7 @@
     <row r="538" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="5">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C538" s="14"/>
       <c r="D538" s="14"/>
@@ -11792,7 +11768,7 @@
     <row r="539" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="9">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C539" s="14"/>
       <c r="D539" s="14"/>
@@ -11811,7 +11787,7 @@
     <row r="540" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="5">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C540" s="14"/>
       <c r="D540" s="14"/>
@@ -11830,7 +11806,7 @@
     <row r="541" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="9">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C541" s="14"/>
       <c r="D541" s="14"/>
@@ -11849,7 +11825,7 @@
     <row r="542" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="5">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C542" s="14"/>
       <c r="D542" s="14"/>
@@ -11868,7 +11844,7 @@
     <row r="543" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="9">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C543" s="14"/>
       <c r="D543" s="14"/>
@@ -11887,7 +11863,7 @@
     <row r="544" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="5">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C544" s="14"/>
       <c r="D544" s="14"/>
@@ -11906,7 +11882,7 @@
     <row r="545" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="9">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C545" s="14"/>
       <c r="D545" s="14"/>
@@ -11925,7 +11901,7 @@
     <row r="546" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="5">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C546" s="14"/>
       <c r="D546" s="14"/>
@@ -11944,7 +11920,7 @@
     <row r="547" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="9">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C547" s="14"/>
       <c r="D547" s="14"/>
@@ -11963,7 +11939,7 @@
     <row r="548" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="5">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C548" s="14"/>
       <c r="D548" s="14"/>
@@ -11982,7 +11958,7 @@
     <row r="549" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="9">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C549" s="14"/>
       <c r="D549" s="14"/>
@@ -12001,7 +11977,7 @@
     <row r="550" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="5">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C550" s="14"/>
       <c r="D550" s="14"/>
@@ -12020,7 +11996,7 @@
     <row r="551" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="9">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C551" s="14"/>
       <c r="D551" s="14"/>
@@ -12039,7 +12015,7 @@
     <row r="552" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="5">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C552" s="14"/>
       <c r="D552" s="14"/>
@@ -12058,7 +12034,7 @@
     <row r="553" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="9">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C553" s="14"/>
       <c r="D553" s="14"/>
@@ -12077,7 +12053,7 @@
     <row r="554" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="5">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C554" s="14"/>
       <c r="D554" s="14"/>
@@ -12096,7 +12072,7 @@
     <row r="555" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="9">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C555" s="14"/>
       <c r="D555" s="14"/>
@@ -12115,7 +12091,7 @@
     <row r="556" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="5">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C556" s="14"/>
       <c r="D556" s="14"/>
@@ -12134,7 +12110,7 @@
     <row r="557" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="9">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C557" s="14"/>
       <c r="D557" s="14"/>
@@ -12153,7 +12129,7 @@
     <row r="558" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="5">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C558" s="14"/>
       <c r="D558" s="14"/>
@@ -12172,7 +12148,7 @@
     <row r="559" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="9">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C559" s="14"/>
       <c r="D559" s="14"/>
@@ -12191,7 +12167,7 @@
     <row r="560" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="5">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C560" s="14"/>
       <c r="D560" s="14"/>
@@ -12210,7 +12186,7 @@
     <row r="561" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="9">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C561" s="14"/>
       <c r="D561" s="14"/>
@@ -12229,7 +12205,7 @@
     <row r="562" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="5">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C562" s="14"/>
       <c r="D562" s="14"/>
@@ -12248,7 +12224,7 @@
     <row r="563" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="9">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C563" s="14"/>
       <c r="D563" s="14"/>
@@ -12267,7 +12243,7 @@
     <row r="564" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="5">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C564" s="14"/>
       <c r="D564" s="14"/>
@@ -12286,7 +12262,7 @@
     <row r="565" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="9">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C565" s="14"/>
       <c r="D565" s="14"/>
@@ -12305,7 +12281,7 @@
     <row r="566" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="5">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C566" s="14"/>
       <c r="D566" s="14"/>
@@ -12324,7 +12300,7 @@
     <row r="567" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="9">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C567" s="14"/>
       <c r="D567" s="14"/>
@@ -12343,7 +12319,7 @@
     <row r="568" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="5">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C568" s="14"/>
       <c r="D568" s="14"/>
@@ -12362,7 +12338,7 @@
     <row r="569" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="9">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C569" s="14"/>
       <c r="D569" s="14"/>
@@ -12381,7 +12357,7 @@
     <row r="570" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="5">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C570" s="14"/>
       <c r="D570" s="14"/>
@@ -12400,7 +12376,7 @@
     <row r="571" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="9">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C571" s="14"/>
       <c r="D571" s="14"/>
@@ -12419,7 +12395,7 @@
     <row r="572" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="5">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C572" s="14"/>
       <c r="D572" s="14"/>
@@ -12438,7 +12414,7 @@
     <row r="573" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="9">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C573" s="14"/>
       <c r="D573" s="14"/>
@@ -12457,7 +12433,7 @@
     <row r="574" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="5">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C574" s="14"/>
       <c r="D574" s="14"/>
@@ -12476,7 +12452,7 @@
     <row r="575" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="9">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C575" s="14"/>
       <c r="D575" s="14"/>
@@ -12495,7 +12471,7 @@
     <row r="576" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="5">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C576" s="14"/>
       <c r="D576" s="14"/>
@@ -12514,7 +12490,7 @@
     <row r="577" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="9">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C577" s="14"/>
       <c r="D577" s="14"/>
@@ -12533,7 +12509,7 @@
     <row r="578" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="5">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C578" s="14"/>
       <c r="D578" s="14"/>
@@ -12552,7 +12528,7 @@
     <row r="579" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="9">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C579" s="14"/>
       <c r="D579" s="14"/>
@@ -12571,7 +12547,7 @@
     <row r="580" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="5">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C580" s="14"/>
       <c r="D580" s="14"/>
@@ -12590,7 +12566,7 @@
     <row r="581" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="9">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C581" s="14"/>
       <c r="D581" s="14"/>
@@ -12609,7 +12585,7 @@
     <row r="582" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="5">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C582" s="14"/>
       <c r="D582" s="14"/>
@@ -12628,7 +12604,7 @@
     <row r="583" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="9">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C583" s="14"/>
       <c r="D583" s="14"/>
@@ -12647,7 +12623,7 @@
     <row r="584" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="5">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C584" s="14"/>
       <c r="D584" s="14"/>
@@ -12666,7 +12642,7 @@
     <row r="585" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="9">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C585" s="14"/>
       <c r="D585" s="14"/>
@@ -12685,7 +12661,7 @@
     <row r="586" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="5">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C586" s="14"/>
       <c r="D586" s="14"/>
@@ -12704,7 +12680,7 @@
     <row r="587" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="9">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C587" s="14"/>
       <c r="D587" s="14"/>
@@ -12723,7 +12699,7 @@
     <row r="588" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="5">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C588" s="14"/>
       <c r="D588" s="14"/>
@@ -12742,7 +12718,7 @@
     <row r="589" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="9">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C589" s="14"/>
       <c r="D589" s="14"/>
@@ -12761,7 +12737,7 @@
     <row r="590" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="5">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C590" s="14"/>
       <c r="D590" s="14"/>
@@ -12780,7 +12756,7 @@
     <row r="591" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="9">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C591" s="14"/>
       <c r="D591" s="14"/>
@@ -12799,7 +12775,7 @@
     <row r="592" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="5">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C592" s="14"/>
       <c r="D592" s="14"/>
@@ -12818,7 +12794,7 @@
     <row r="593" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="9">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C593" s="14"/>
       <c r="D593" s="14"/>
@@ -12837,7 +12813,7 @@
     <row r="594" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="5">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C594" s="14"/>
       <c r="D594" s="14"/>
@@ -12856,7 +12832,7 @@
     <row r="595" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="9">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C595" s="14"/>
       <c r="D595" s="14"/>
@@ -12872,95 +12848,57 @@
       <c r="N595" s="1"/>
       <c r="O595" s="1"/>
     </row>
-    <row r="596" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
-      <c r="B596" s="5">
-        <v>585</v>
-      </c>
-      <c r="C596" s="14"/>
-      <c r="D596" s="14"/>
-      <c r="E596" s="14"/>
-      <c r="F596" s="6"/>
-      <c r="G596" s="7"/>
-      <c r="H596" s="8"/>
-      <c r="I596" s="5"/>
-      <c r="J596" s="7"/>
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
+      <c r="D596" s="1"/>
+      <c r="E596" s="1"/>
+      <c r="F596" s="1"/>
+      <c r="G596" s="3"/>
+      <c r="H596" s="1"/>
+      <c r="I596" s="1"/>
+      <c r="J596" s="1"/>
       <c r="K596" s="1"/>
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
       <c r="N596" s="1"/>
       <c r="O596" s="1"/>
     </row>
-    <row r="597" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
-      <c r="B597" s="9">
-        <v>586</v>
-      </c>
-      <c r="C597" s="14"/>
-      <c r="D597" s="14"/>
-      <c r="E597" s="14"/>
-      <c r="F597" s="10"/>
-      <c r="G597" s="11"/>
-      <c r="H597" s="12"/>
-      <c r="I597" s="9"/>
-      <c r="J597" s="11"/>
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
+      <c r="D597" s="1"/>
+      <c r="E597" s="1"/>
+      <c r="F597" s="1"/>
+      <c r="G597" s="1"/>
+      <c r="H597" s="1"/>
+      <c r="I597" s="1"/>
+      <c r="J597" s="1"/>
       <c r="K597" s="1"/>
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
       <c r="N597" s="1"/>
       <c r="O597" s="1"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A598" s="1"/>
-      <c r="B598" s="1"/>
-      <c r="C598" s="1"/>
-      <c r="D598" s="1"/>
-      <c r="E598" s="1"/>
-      <c r="F598" s="1"/>
-      <c r="G598" s="3"/>
-      <c r="H598" s="1"/>
-      <c r="I598" s="1"/>
-      <c r="J598" s="1"/>
-      <c r="K598" s="1"/>
-      <c r="L598" s="1"/>
-      <c r="M598" s="1"/>
-      <c r="N598" s="1"/>
-      <c r="O598" s="1"/>
-    </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A599" s="1"/>
-      <c r="B599" s="1"/>
-      <c r="C599" s="1"/>
-      <c r="D599" s="1"/>
-      <c r="E599" s="1"/>
-      <c r="F599" s="1"/>
-      <c r="G599" s="1"/>
-      <c r="H599" s="1"/>
-      <c r="I599" s="1"/>
-      <c r="J599" s="1"/>
-      <c r="K599" s="1"/>
-      <c r="L599" s="1"/>
-      <c r="M599" s="1"/>
-      <c r="N599" s="1"/>
-      <c r="O599" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C92:C100"/>
+    <mergeCell ref="D19:D91"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E70:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E100"/>
+    <mergeCell ref="D92:D100"/>
+    <mergeCell ref="E48:E53"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D12:D18"/>
     <mergeCell ref="E19:E27"/>
     <mergeCell ref="E28:E47"/>
     <mergeCell ref="C12:C91"/>
-    <mergeCell ref="C92:C102"/>
-    <mergeCell ref="D19:D91"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E70:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E101"/>
-    <mergeCell ref="D92:D101"/>
-    <mergeCell ref="E48:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
